--- a/GlucoseLikeHits.xlsx
+++ b/GlucoseLikeHits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,97 +452,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9999991753591878</v>
+        <v>0.9997817698717323</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(2R,3S,4S,5S,6R)-2,6-bis(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
+          <t>beta-D-Fructopyranose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C([C@@H]1[C@H]([C@@H]([C@@H]([C@](O1)(CO)O)O)O)O)O</t>
+          <t>C1[C@H]([C@H]([C@@H]([C@](O1)(CO)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9999620898004793</v>
+        <v>0.9994814356542611</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>beta-D-Fructopyranose</t>
+          <t>2-Deoxy-D-arabino-hexopyranose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C1[C@H]([C@H]([C@@H]([C@](O1)(CO)O)O)O)O</t>
+          <t>C1[C@H]([C@@H]([C@H](OC1O)CO)O)O</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9998118928088146</v>
+        <v>0.9978528180174157</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2-Deoxy-D-arabino-hexopyranose</t>
+          <t>D-Mannose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C1[C@H]([C@@H]([C@H](OC1O)CO)O)O</t>
+          <t>C([C@@H]1[C@H]([C@@H]([C@@H](C(O1)O)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9986749772518246</v>
+        <v>0.9920360933708474</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D-Mannose</t>
+          <t>(2R,3S,4R,5R)-2-(2-hydroxyethyl)oxane-2,3,4,5-tetrol</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C([C@@H]1[C@H]([C@@H]([C@@H](C(O1)O)O)O)O)O</t>
+          <t>C1[C@H]([C@H]([C@@H]([C@](O1)(CCO)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9896922830848695</v>
+        <v>0.9736910360870284</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(2R,3S,4R,5R)-2-(2-hydroxyethyl)oxane-2,3,4,5-tetrol</t>
+          <t>(2R,3S,4S,5S,6R)-2,6-bis(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C1[C@H]([C@H]([C@@H]([C@](O1)(CCO)O)O)O)O</t>
+          <t>C([C@@H]1[C@H]([C@@H]([C@@H]([C@](O1)(CO)O)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9522167086904729</v>
+        <v>0.9496789453611915</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(2R,3S,4R,5R,6R)-2,6-bis(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
+          <t>alpha-L-Psicopyranose</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C([C@@H]1[C@@H]([C@H]([C@@H]([C@](O1)(CO)O)O)O)O)O</t>
+          <t>C1[C@@H]([C@@H]([C@@H]([C@](O1)(CO)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9507675201769356</v>
+        <v>0.9483178608498748</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -557,352 +557,352 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9488969384333337</v>
+        <v>0.9425938680334993</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>alpha-L-Psicopyranose</t>
+          <t>(2R,3S,4S,5R)-5-fluoro-2-(hydroxymethyl)oxane-2,3,4-triol</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C1[C@@H]([C@@H]([C@@H]([C@](O1)(CO)O)O)O)O</t>
+          <t>C1[C@H]([C@H]([C@@H]([C@](O1)(CO)O)O)O)F</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9366259637393276</v>
+        <v>0.8817621948806028</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(2R,3S,4S,5R)-5-fluoro-2-(hydroxymethyl)oxane-2,3,4-triol</t>
+          <t>(2R,3S,5R)-2-(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C1[C@H]([C@H]([C@@H]([C@](O1)(CO)O)O)O)F</t>
+          <t>C1[C@H](C([C@@H]([C@](O1)(CO)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9313815981227301</v>
+        <v>0.8738927509538383</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(2R,3S,5R)-2-(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
+          <t>(2R,3S,4R,5R,6R)-2,6-bis(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C1[C@H](C([C@@H]([C@](O1)(CO)O)O)O)O</t>
+          <t>C([C@@H]1[C@@H]([C@H]([C@@H]([C@](O1)(CO)O)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9219089865599553</v>
+        <v>0.8655245440817185</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1-(Hydroxymethyl)-beta-D-glucopyranose</t>
+          <t>(2R,3S,4R)-2-(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C([C@@H]1[C@H]([C@@H]([C@H]([C@](O1)(CO)O)O)O)O)O</t>
+          <t>C1C([C@H]([C@@H]([C@](O1)(CO)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8803426160468656</v>
+        <v>0.861348575145565</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(2R,3S,4R)-2-(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
+          <t>alpha-L-Sorbopyranose</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C1C([C@H]([C@@H]([C@](O1)(CO)O)O)O)O</t>
+          <t>C1[C@@H]([C@H]([C@@H]([C@](O1)(CO)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8706660548215541</v>
+        <v>0.8593689188365806</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2-Deoxy-d-arabino-hexos</t>
+          <t>beta-D-tagatopyranose</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C1C([C@@H]([C@H](OC1O)CO)O)O</t>
+          <t>C1[C@H]([C@@H]([C@@H]([C@](O1)(CO)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8556617931058647</v>
+        <v>0.8562757155102664</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>beta-D-Sedoheptulopyranose</t>
+          <t>(2R,3S,4R,5R)-2-(fluoromethyl)oxane-2,3,4,5-tetrol</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C([C@@H]1[C@H]([C@H]([C@@H]([C@](O1)(CO)O)O)O)O)O</t>
+          <t>C1[C@H]([C@H]([C@@H]([C@@](O1)(CF)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8524187537611418</v>
+        <v>0.8368929216446933</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>(2R,3S,4R,6R)-2,6-bis(hydroxymethyl)oxane-2,3,4-triol</t>
+          <t>2-Deoxy-d-arabino-hexos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C1[C@@H](O[C@@]([C@H]([C@@H]1O)O)(CO)O)CO</t>
+          <t>C1C([C@@H]([C@H](OC1O)CO)O)O</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8501880342093432</v>
+        <v>0.8341976164723665</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>(2R,3S,4R,5R)-2-(fluoromethyl)oxane-2,3,4,5-tetrol</t>
+          <t>5-Deoxy-beta-D-fructopyranose</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C1[C@H]([C@H]([C@@H]([C@@](O1)(CF)O)O)O)O</t>
+          <t>C1CO[C@@]([C@H]([C@@H]1O)O)(CO)O</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8450209578513469</v>
+        <v>0.8317535384847511</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>alpha-L-Sorbopyranose</t>
+          <t>(2R,3R,5R)-2-(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C1[C@@H]([C@H]([C@@H]([C@](O1)(CO)O)O)O)O</t>
+          <t>C1[C@H](C([C@H]([C@](O1)(CO)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8315365324145723</v>
+        <v>0.826532262584284</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>(4S,5S,6R)-6-(hydroxymethyl)oxane-2,4,5-triol</t>
+          <t>5-Keto-beta-D-fructo-2,6-pyranose, 5-hydrate</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C1[C@@H]([C@@H]([C@H](OC1O)CO)O)O</t>
+          <t>C1C([C@H]([C@@H]([C@](O1)(CO)O)O)O)(O)O</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.824863577650561</v>
+        <v>0.8175436086834352</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5-Keto-beta-D-fructo-2,6-pyranose, 5-hydrate</t>
+          <t>(2R,3S,4R,6R)-2,6-bis(hydroxymethyl)oxane-2,3,4-triol</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C1C([C@H]([C@@H]([C@](O1)(CO)O)O)O)(O)O</t>
+          <t>C1[C@@H](O[C@@]([C@H]([C@@H]1O)O)(CO)O)CO</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.8240298856383721</v>
+        <v>0.7879365687711504</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[(4S,5S,6R)-4,5,6-trihydroxy-6-(hydroxymethyl)oxan-3-yl] hypoiodite</t>
+          <t>(2R)-2-(hydroxymethyl)oxane-2,3-diol</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C1C([C@H]([C@@H]([C@](O1)(CO)O)O)O)OI</t>
+          <t>C1CC([C@](OC1)(CO)O)O</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.8223097300679939</v>
+        <v>0.7866480492102026</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>beta-D-tagatopyranose</t>
+          <t>(4S,5S,6R)-6-(hydroxymethyl)oxane-2,4,5-triol</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C1[C@H]([C@@H]([C@@H]([C@](O1)(CO)O)O)O)O</t>
+          <t>C1[C@@H]([C@@H]([C@H](OC1O)CO)O)O</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8086222627271615</v>
+        <v>0.7829539798630304</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5-Deoxy-beta-D-fructopyranose</t>
+          <t>[(4S,5S,6R)-4,5,6-trihydroxy-6-(hydroxymethyl)oxan-3-yl] hypoiodite</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C1CO[C@@]([C@H]([C@@H]1O)O)(CO)O</t>
+          <t>C1C([C@H]([C@@H]([C@](O1)(CO)O)O)O)OI</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.7961114797010168</v>
+        <v>0.7573186845699366</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>(2R)-2-(hydroxymethyl)oxane-2,3-diol</t>
+          <t>(2R,3R,4S,5R)-4-fluoro-2-(hydroxymethyl)oxane-2,3,5-triol</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C1CC([C@](OC1)(CO)O)O</t>
+          <t>C1[C@H]([C@@H]([C@@H]([C@](O1)(CO)O)O)F)O</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7875731371204411</v>
+        <v>0.750209852704109</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2-Deoxy-2-iodo-D-mannopyranose</t>
+          <t>1-(Hydroxymethyl)-beta-D-glucopyranose</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C([C@@H]1[C@H]([C@@H]([C@@H](C(O1)O)I)O)O)O</t>
+          <t>C([C@@H]1[C@H]([C@@H]([C@H]([C@](O1)(CO)O)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7746344086524424</v>
+        <v>0.7482812124062633</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>m-Fluoro-d-glucose</t>
+          <t>beta-d-Psicopyranose</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C([C@@H]1[C@H]([C@@H]([C@@]([C@H](O1)O)(O)F)O)O)O</t>
+          <t>C1[C@H]([C@H]([C@H]([C@](O1)(CO)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.7637249887789725</v>
+        <v>0.7416054249498782</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>(2R,3R,5R)-2-(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
+          <t>(2R,4R,5R)-2-(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>C1[C@H](C([C@H]([C@](O1)(CO)O)O)O)O</t>
+          <t>C1[C@H]([C@H](C([C@](O1)(CO)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.7582592503050943</v>
+        <v>0.7169751707533156</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>(2S,3S,4S,5S,6R)-3-fluoro-6-(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
+          <t>(2S,4R,5S,6R)-6-(hydroxymethyl)oxane-2,4,5-triol</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C([C@@H]1[C@H]([C@@H]([C@]([C@H](O1)O)(O)F)O)O)O</t>
+          <t>C1[C@H]([C@@H]([C@H](O[C@@H]1O)CO)O)O</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.7534023634250403</v>
+        <v>0.7129878673139628</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>(2R,3R,4S,5S,6R)-3-fluoro-6-(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
+          <t>2-Deoxy-2-iodo-D-mannopyranose</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C([C@@H]1[C@H]([C@@H]([C@@]([C@@H](O1)O)(O)F)O)O)O</t>
+          <t>C([C@@H]1[C@H]([C@@H]([C@@H](C(O1)O)I)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.7440425178269037</v>
+        <v>0.7106701726719656</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>(2R,5R)-5-fluoro-2-(hydroxymethyl)oxane-2,3,4-triol</t>
+          <t>alpha-L-fructopyranose</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>C1[C@H](C(C([C@](O1)(CO)O)O)O)F</t>
+          <t>C1[C@@H]([C@@H]([C@H]([C@](O1)(CO)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.7330572251097888</v>
+        <v>0.708656463453641</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[3,4beta,5alpha,6alpha-Tetrahydroxy-6-(hydroxymethyl)tetrahydro-2H-pyran-3alpha-yl]radical</t>
+          <t>(4R,5S,6R)-6-(iodomethyl)oxane-2,4,5-triol</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>C1[C]([C@H]([C@@H]([C@](O1)(CO)O)O)O)O</t>
+          <t>C1[C@H]([C@@H]([C@@H](OC1O)CI)O)O</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7329653664601038</v>
+        <v>0.6992523542860911</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -917,307 +917,307 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.7169735059142995</v>
+        <v>0.6955386428387469</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>(4R,5S,6R)-6-(iodomethyl)oxane-2,4,5-triol</t>
+          <t>m-Fluoro-d-glucose</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>C1[C@H]([C@@H]([C@@H](OC1O)CI)O)O</t>
+          <t>C([C@@H]1[C@H]([C@@H]([C@@]([C@H](O1)O)(O)F)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.7156358020668374</v>
+        <v>0.6901568459934141</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>(2S,4R,5S,6R)-6-(hydroxymethyl)oxane-2,4,5-triol</t>
+          <t>[3,4beta,5alpha,6alpha-Tetrahydroxy-6-(hydroxymethyl)tetrahydro-2H-pyran-3alpha-yl]radical</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>C1[C@H]([C@@H]([C@H](O[C@@H]1O)CO)O)O</t>
+          <t>C1[C]([C@H]([C@@H]([C@](O1)(CO)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.7069734469347817</v>
+        <v>0.6868325448518664</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>alpha-L-fructopyranose</t>
+          <t>(2R,5R)-5-fluoro-2-(hydroxymethyl)oxane-2,3,4-triol</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>C1[C@@H]([C@@H]([C@H]([C@](O1)(CO)O)O)O)O</t>
+          <t>C1[C@H](C(C([C@](O1)(CO)O)O)O)F</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.6989800496331208</v>
+        <v>0.6825720882470421</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>(2R,4R,5R)-2-(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
+          <t>(2R,5R)-2-(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>C1[C@H]([C@H](C([C@](O1)(CO)O)O)O)O</t>
+          <t>C1[C@H](C(C([C@](O1)(CO)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.6780496207610076</v>
+        <v>0.6779868668920824</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>beta-d-Psicopyranose</t>
+          <t>(2R,3R,4S,5S,6R)-3-fluoro-6-(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>C1[C@H]([C@H]([C@H]([C@](O1)(CO)O)O)O)O</t>
+          <t>C([C@@H]1[C@H]([C@@H]([C@@]([C@@H](O1)O)(O)F)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.6755042913146856</v>
+        <v>0.6678523106283175</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>(2R,3R,4S,5R)-4-fluoro-2-(hydroxymethyl)oxane-2,3,5-triol</t>
+          <t>(2R,3S,4R,5R)-2-(hydroxymethyl)-4-methoxyoxane-2,3,5-triol</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>C1[C@H]([C@@H]([C@@H]([C@](O1)(CO)O)O)F)O</t>
+          <t>CO[C@@H]1[C@@H](CO[C@@]([C@H]1O)(CO)O)O</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.6751635379311983</v>
+        <v>0.6521794032510871</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>beta-Fluoroglucose</t>
+          <t>beta-D-Sedoheptulopyranose</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>C([C@@H]1[C@H]([C@@H]([C@@](C(O1)O)(O)F)O)O)O</t>
+          <t>C([C@@H]1[C@H]([C@H]([C@@H]([C@](O1)(CO)O)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.6726312449143254</v>
+        <v>0.6422215723255023</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>(3S,4S,5S,6R)-3-fluoro-6-(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
+          <t>(2S,3S,4S,5S,6R)-3-fluoro-6-(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>C([C@@H]1[C@H]([C@@H]([C@](C(O1)O)(O)F)O)O)O</t>
+          <t>C([C@@H]1[C@H]([C@@H]([C@]([C@H](O1)O)(O)F)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.6561966028659509</v>
+        <v>0.6207482244245818</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>(2R,5R)-2-(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
+          <t>(2R)-2-(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>C1[C@H](C(C([C@](O1)(CO)O)O)O)O</t>
+          <t>C1C(C(C([C@](O1)(CO)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.6492941015757034</v>
+        <v>0.60605935321141</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>(2R)-2-(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
+          <t>(2R,4S,5R)-2-(Hydroxymethyl)oxane-2,3,4,5-tetrol</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>C1C(C(C([C@](O1)(CO)O)O)O)O</t>
+          <t>C1[C@H]([C@@H](C([C@](O1)(CO)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.6480007644891126</v>
+        <v>0.5817841573713193</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2-Hydroxy-beta-D-glucopyranose</t>
+          <t>D-[4-13C]fructose</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>C([C@@H]1[C@H]([C@@H](C([C@@H](O1)O)(O)O)O)O)O</t>
+          <t>C1[C@@H](C(C([C@](O1)(CO)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.6290971565984321</v>
+        <v>0.5815483745355968</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>(4R,6R)-6-(hydroxymethyl)oxane-2,4,5-triol</t>
+          <t>2-Deoxy-beta-d-arabino-hexopyranose</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>C1[C@H](C([C@H](OC1O)CO)O)O</t>
+          <t>C1[C@H]([C@@H]([C@H](O[C@H]1O)CO)O)O</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.6240340915633547</v>
+        <v>0.5655829070357283</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>(2R,3S,4R,5R)-2-(hydroxymethyl)-4-methoxyoxane-2,3,5-triol</t>
+          <t>(2R,3S,4R,5R)-2-(methoxymethyl)oxane-2,3,4,5-tetrol</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CO[C@@H]1[C@@H](CO[C@@]([C@H]1O)(CO)O)O</t>
+          <t>COC[C@@]1([C@H]([C@@H]([C@@H](CO1)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.6120166184569072</v>
+        <v>0.5603509224018364</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>(2S,3R,4S,5S,6R)-6-(hydroxymethyl)-3-sulfanyloxane-2,3,4,5-tetrol</t>
+          <t>beta-Fluoroglucose</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>C([C@@H]1[C@H]([C@@H]([C@@]([C@H](O1)O)(O)S)O)O)O</t>
+          <t>C([C@@H]1[C@H]([C@@H]([C@@](C(O1)O)(O)F)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.6084406225829647</v>
+        <v>0.5378917335417761</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2-Deoxy-beta-d-arabino-hexopyranose</t>
+          <t>(3S,4S,5S,6R)-3-fluoro-6-(hydroxymethyl)oxane-2,3,4,5-tetrol</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>C1[C@H]([C@@H]([C@H](O[C@H]1O)CO)O)O</t>
+          <t>C([C@@H]1[C@H]([C@@H]([C@](C(O1)O)(O)F)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.6036002349534684</v>
+        <v>0.5355288588482888</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>D-[4-13C]fructose</t>
+          <t>(4R,5S,6R)-5-fluoro-6-(hydroxymethyl)oxane-2,4-diol</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>C1[C@@H](C(C([C@](O1)(CO)O)O)O)O</t>
+          <t>C1[C@H]([C@@H]([C@H](OC1O)CO)F)O</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.5901180688204143</v>
+        <v>0.5253161946794591</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>(4R,5S,6R)-5-fluoro-6-(hydroxymethyl)oxane-2,4-diol</t>
+          <t>beta-D-sorbopyranose</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>C1[C@H]([C@@H]([C@H](OC1O)CO)F)O</t>
+          <t>C1[C@H]([C@@H]([C@H]([C@](O1)(CO)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.5598533177740531</v>
+        <v>0.5173940860145163</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2-Hydroxy-alpha-D-glucopyranose</t>
+          <t>2-Hydroxy-beta-D-glucopyranose</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>C([C@@H]1[C@H]([C@@H](C([C@H](O1)O)(O)O)O)O)O</t>
+          <t>C([C@@H]1[C@H]([C@@H](C([C@@H](O1)O)(O)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.5561690199215065</v>
+        <v>0.5162149646684554</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>(2R,4S,5R)-2-(Hydroxymethyl)oxane-2,3,4,5-tetrol</t>
+          <t>(4R,6R)-6-(hydroxymethyl)oxane-2,4,5-triol</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>C1[C@H]([C@@H](C([C@](O1)(CO)O)O)O)O</t>
+          <t>C1[C@H](C([C@H](OC1O)CO)O)O</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.529465670495919</v>
+        <v>0.5103800139492697</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>beta-Thioglucose</t>
+          <t>(2S,3R,4S,5S,6R)-6-(hydroxymethyl)-3-sulfanyloxane-2,3,4,5-tetrol</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>C([C@@H]1[C@H]([C@@H]([C@@](C(O1)O)(O)S)O)O)O</t>
+          <t>C([C@@H]1[C@H]([C@@H]([C@@]([C@H](O1)O)(O)S)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.5284959994132697</v>
+        <v>0.5022326190841857</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1227,36 +1227,6 @@
       <c r="C53" t="inlineStr">
         <is>
           <t>C1[C@H]([C@@H]([C@H](O[C@H]1ON)CO)O)O</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>0.5247149964237743</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>(2R,3S,4R,5R)-2-(methoxymethyl)oxane-2,3,4,5-tetrol</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>COC[C@@]1([C@H]([C@@H]([C@@H](CO1)O)O)O)O</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>0.5028914460758134</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>beta-D-sorbopyranose</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>C1[C@H]([C@@H]([C@H]([C@](O1)(CO)O)O)O)O</t>
         </is>
       </c>
     </row>
